--- a/Assets/Data/tables/功法数据表.xlsx
+++ b/Assets/Data/tables/功法数据表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\百度云同步盘\SkyDrive\My Game\tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\__Study\Projects\Unity3d\Gongfu-World\Assets\Data\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="94">
   <si>
     <t>功法类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -365,6 +365,38 @@
   </si>
   <si>
     <t>TgtPartGroup_LowerLimbs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TgtPartProbAdd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Requirements</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -568,6 +600,18 @@
     <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -582,18 +626,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -958,10 +990,10 @@
   <dimension ref="A1:AH157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="11" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="2" topLeftCell="V3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="V11" sqref="V11"/>
+      <selection pane="bottomRight" activeCell="W12" sqref="W12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -984,34 +1016,34 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="17"/>
+      <c r="E1" s="21"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="15"/>
-      <c r="I1" s="13" t="s">
+      <c r="H1" s="19"/>
+      <c r="I1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="14"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="13" t="s">
+      <c r="J1" s="18"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="14"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="13" t="s">
+      <c r="M1" s="18"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="15"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="19"/>
       <c r="V1" s="3"/>
       <c r="W1" s="4"/>
       <c r="X1" s="5"/>
@@ -1118,131 +1150,169 @@
       <c r="AG2" s="5"/>
       <c r="AH2" s="5"/>
     </row>
-    <row r="3" spans="1:34" s="21" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="18" t="s">
+    <row r="3" spans="1:34" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="J3" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="K3" s="19" t="s">
+      <c r="K3" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="L3" s="19" t="s">
+      <c r="L3" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="M3" s="19" t="s">
+      <c r="M3" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="N3" s="19" t="s">
+      <c r="N3" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="O3" s="19" t="s">
+      <c r="O3" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="P3" s="19" t="s">
+      <c r="P3" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="Q3" s="19" t="s">
+      <c r="Q3" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="R3" s="19" t="s">
+      <c r="R3" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="S3" s="19" t="s">
+      <c r="S3" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="T3" s="19" t="s">
+      <c r="T3" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="U3" s="19" t="s">
+      <c r="U3" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="V3" s="19"/>
-      <c r="W3" s="20"/>
-      <c r="X3" s="19"/>
-      <c r="Y3" s="19"/>
-      <c r="Z3" s="19"/>
-      <c r="AA3" s="19"/>
-      <c r="AB3" s="19"/>
-      <c r="AC3" s="19"/>
-      <c r="AD3" s="19"/>
-      <c r="AE3" s="19"/>
-      <c r="AF3" s="19"/>
-      <c r="AG3" s="19"/>
-      <c r="AH3" s="19"/>
-    </row>
-    <row r="4" spans="1:34" s="21" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="18" t="s">
+      <c r="V3" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="W3" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="X3" s="14"/>
+      <c r="Y3" s="14"/>
+      <c r="Z3" s="14"/>
+      <c r="AA3" s="14"/>
+      <c r="AB3" s="14"/>
+      <c r="AC3" s="14"/>
+      <c r="AD3" s="14"/>
+      <c r="AE3" s="14"/>
+      <c r="AF3" s="14"/>
+      <c r="AG3" s="14"/>
+      <c r="AH3" s="14"/>
+    </row>
+    <row r="4" spans="1:34" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="19"/>
-      <c r="W4" s="20"/>
-      <c r="X4" s="19"/>
-      <c r="Y4" s="19"/>
-      <c r="Z4" s="19"/>
-      <c r="AA4" s="19"/>
-      <c r="AB4" s="19"/>
-      <c r="AC4" s="19"/>
-      <c r="AD4" s="19"/>
-      <c r="AE4" s="19"/>
-      <c r="AF4" s="19"/>
-      <c r="AG4" s="19"/>
-      <c r="AH4" s="19"/>
+      <c r="G4" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="M4" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="N4" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="P4" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q4" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="R4" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="S4" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="T4" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="U4" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="V4" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="W4" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="14"/>
+      <c r="Z4" s="14"/>
+      <c r="AA4" s="14"/>
+      <c r="AB4" s="14"/>
+      <c r="AC4" s="14"/>
+      <c r="AD4" s="14"/>
+      <c r="AE4" s="14"/>
+      <c r="AF4" s="14"/>
+      <c r="AG4" s="14"/>
+      <c r="AH4" s="14"/>
     </row>
     <row r="5" spans="1:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
